--- a/docs/PTA2_DDC_30/PTA2_DDC_30_08.11.2024_output.xlsx
+++ b/docs/PTA2_DDC_30/PTA2_DDC_30_08.11.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K132"/>
+  <dimension ref="A1:N132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,581 +505,687 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731433961.3126738</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731433963.1548243</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731433961.3126738.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731433963.1548243.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>7148.5</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>7140.5</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>8</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731433963.1952727</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731433967.4366634</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731433963.1952727.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731433967.4366634.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>7140</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>7090</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-50</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.7000000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731433968.003111</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731433969.841383</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731433968.003111.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731433969.841383.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>7094.5</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>7101.5</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-7</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731433970.0348666</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731433970.697507</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731433970.0348666.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731433970.697507.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>7100</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>7098</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731433972.2444277</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731433973.5392118</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731433972.2444277.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731433973.5392118.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>7104.5</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>7093.5</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>11</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731433974.1418064</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731433974.8767052</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731433974.1418064.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731433974.8767052.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>7088.5</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>7100</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>11.5</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731433976.9144351</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731433977.323787</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731433976.9144351.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731433977.323787.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>7092.5</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>7095.5</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>3</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731433977.4318485</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731433980.6773584</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731433977.4318485.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731433980.6773584.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>7090</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>7074</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-16</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731433980.7745693</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731433980.8689723</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731433980.7745693.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731433980.8689723.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>473.2</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>473.65</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.4499999999999886</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731433981.061944</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731433983.6790645</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731433981.061944.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731433983.6790645.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>474.45</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>475.1</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-0.6500000000000341</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731433983.899372</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731433984.4709094</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731433983.899372.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731433984.4709094.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>475.1</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>475.1</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1072,1502 +1193,1781 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731433985.5189621</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731433986.5180275</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731433985.5189621.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731433986.5180275.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>473.85</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>473.9</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.04999999999995453</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731433987.312712</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731433988.162746</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731433987.312712.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731433988.162746.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>475.05</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>474</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>1.050000000000011</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731433989.0356073</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731433989.4916918</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731433989.0356073.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731433989.4916918.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>473.55</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>474.3</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.75</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731433989.7452273</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731433990.9984334</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731433989.7452273.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731433990.9984334.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>474.7</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>474.35</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.3499999999999659</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731433991.0412898</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731433991.1181152</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731433991.0412898.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731433991.1181152.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>473.65</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>474.35</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.7000000000000455</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731433991.227472</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731433991.948157</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731433991.227472.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731433991.948157.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>473.4</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>473.9</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.5</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731433993.255952</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731433994.7972941</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731433993.255952.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731433994.7972941.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>474.35</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>474.2</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.1500000000000341</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731433994.9322536</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731433995.1785893</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731433994.9322536.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731433995.1785893.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>473.85</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>474.5</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.6499999999999773</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731433997.3290703</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731433999.620637</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731433997.3290703.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731433999.620637.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>475.05</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>476.05</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-1</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731433999.8311224</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731433999.8311224.png</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731433999.8311224.png</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>475.4</v>
       </c>
-      <c r="J23" t="n">
-        <v>475.4</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
+      <c r="L23" t="n">
+        <v>474.5</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-0.8999999999999773</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731434002.8277724</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731434003.969873</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731434002.8277724.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731434003.969873.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>934.2</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>932.8</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>1.400000000000091</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731434004.2450016</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731434004.971699</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731434004.2450016.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731434004.971699.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>932.6</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>933.4</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.7999999999999545</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731434005.6233234</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731434008.6508229</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731434005.6233234.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731434008.6508229.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>932</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>928.2</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-3.799999999999955</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.41</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731434009.0570018</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731434011.0993705</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731434009.0570018.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731434011.0993705.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>930.8</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>930.4</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.3999999999999773</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731434011.2465715</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731434012.8597372</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731434011.2465715.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731434012.8597372.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>930.6</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>931.4</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.7999999999999545</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731434012.8737009</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731434014.5347269</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731434012.8737009.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731434014.5347269.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>931.4</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>933</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-1.600000000000023</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731434016.397702</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731434016.5369704</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731434016.397702.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731434016.5369704.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>933.4</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>931.8</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>1.600000000000023</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731434016.7222307</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731434017.3975637</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731434016.7222307.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731434017.3975637.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>934.4</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>932.8</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>1.600000000000023</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731434018.7865937</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731434018.7865937.png</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731434018.7865937.png</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>932</v>
       </c>
-      <c r="J32" t="n">
-        <v>932</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
+      <c r="L32" t="n">
+        <v>930.8</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-1.200000000000045</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731434021.3660748</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731434021.8616483</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731434021.3660748.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731434021.8616483.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>129.3</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>129.8</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.5</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731434021.903755</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731434023.3951454</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731434021.903755.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731434023.3951454.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>130.26</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>130.04</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.2199999999999989</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731434023.5198076</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731434023.899143</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731434023.5198076.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731434023.899143.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>129.84</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>130.22</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.3799999999999955</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731434024.8040466</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731434026.5476499</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731434024.8040466.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731434026.5476499.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>129.6</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>129.36</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-0.2399999999999807</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731434027.6041503</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731434027.7107208</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731434027.6041503.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731434027.7107208.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>129.62</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>129.36</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.2599999999999909</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731434027.8743322</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731434028.0676467</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731434027.8743322.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731434028.0676467.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>129.4</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>129.58</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731434028.1083713</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731434029.035773</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731434028.1083713.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731434029.035773.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>129.64</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>129.56</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.07999999999998408</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731434030.0738227</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731434030.7673938</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731434030.0738227.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731434030.7673938.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>129.24</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>129.56</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.3199999999999932</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731434031.8499403</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731434033.6589308</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731434031.8499403.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731434033.6589308.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>129.66</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>129.98</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-0.3199999999999932</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731434034.9055052</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731434035.720348</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731434034.9055052.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731434035.720348.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>129.76</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>130.08</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.3200000000000216</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731434035.8414075</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731434038.2867236</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731434035.8414075.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731434038.2867236.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>130.12</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>130.14</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-0.01999999999998181</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731434039.17601</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731434040.415055</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731434039.17601.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731434040.415055.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>130.06</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>130.06</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2575,1461 +2975,1731 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731434041.4653702</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731434043.0807517</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731434041.4653702.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731434043.0807517.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>37.85</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>37.895</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-0.04500000000000171</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731434043.4586377</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731434043.892998</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731434043.4586377.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731434043.892998.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>37.83</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>37.92</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.09000000000000341</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731434044.8217125</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731434046.1841822</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731434044.8217125.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731434046.1841822.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>37.725</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>37.825</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.1000000000000014</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731434047.6460028</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731434047.9047005</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731434047.6460028.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731434047.9047005.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>37.68</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>37.765</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.08500000000000085</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731434048.604225</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731434050.3755784</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731434048.604225.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731434050.3755784.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>37.88</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>37.865</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.01500000000000057</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731434050.5793943</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731434051.1297963</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731434050.5793943.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731434051.1297963.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>37.815</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>37.89</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.07500000000000284</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731434052.3641083</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731434053.773888</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731434052.3641083.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731434053.773888.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>37.9</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>37.94</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>-0.03999999999999915</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731434054.1507406</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731434054.496346</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731434054.1507406.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731434054.496346.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>37.885</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>37.965</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.0800000000000054</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731434055.6612716</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731434057.58185</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731434055.6612716.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731434057.58185.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>38.05</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>38.035</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.01500000000000057</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731434058.2781665</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731434059.362652</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731434058.2781665.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731434059.362652.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>38.02</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>38.01</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-0.01000000000000512</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731434060.164351</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731434060.3847904</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731434060.164351.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731434060.3847904.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>37.945</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>37.96</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.01500000000000057</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731434061.9707618</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731434063.5053976</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731434061.9707618.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731434063.5053976.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>1180.8</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>1181.8</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>-1</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731434064.0361016</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731434064.1642365</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731434064.0361016.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731434064.1642365.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>1190</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>1184.6</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>5.400000000000091</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731434065.8077066</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731434066.225872</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731434065.8077066.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731434066.225872.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>1182.4</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>1184.2</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>1.799999999999955</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731434067.924197</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731434068.090227</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731434067.924197.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731434068.090227.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>1182.2</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>1183.4</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>1.200000000000045</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731434068.1311138</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731434068.6085203</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731434068.1311138.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731434068.6085203.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>1182.6</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>1184.4</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>1.800000000000182</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731434068.6504362</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731434070.504674</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731434068.6504362.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731434070.504674.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>1185.2</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>1185.4</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>-0.2000000000000455</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731434070.5575373</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731434072.3237064</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731434070.5575373.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731434072.3237064.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>1183.8</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>1184.6</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.7999999999999545</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731434072.477037</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731434074.4059567</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731434072.477037.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731434074.4059567.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>1186</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>1188</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>-2</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731434074.6028025</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731434074.738824</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731434074.6028025.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731434074.738824.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>1186.2</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>1189.2</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>3</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731434075.1628547</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731434077.776393</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731434075.1628547.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731434077.776393.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>1191</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>1189.8</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>1.200000000000045</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731434078.9801214</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731434079.3070614</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731434078.9801214.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731434079.3070614.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>1191.4</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>1190.2</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>1.200000000000045</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731434079.8859632</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731434080.2453518</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731434079.8859632.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731434080.2453518.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>1189.4</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>1190</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.5999999999999091</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731434081.3441303</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731434081.3441303.png</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731434081.3441303.png</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>1190.6</v>
       </c>
-      <c r="J68" t="n">
-        <v>1190.6</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0</v>
+      <c r="L68" t="n">
+        <v>1190.8</v>
+      </c>
+      <c r="M68" t="n">
+        <v>-0.2000000000000455</v>
+      </c>
+      <c r="N68" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731434082.4300537</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731434084.1448407</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731434082.4300537.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731434084.1448407.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>78.93000000000001</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>78.98999999999999</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>-0.05999999999998806</v>
+      </c>
+      <c r="N69" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731434085.4476244</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731434087.1055822</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731434085.4476244.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731434087.1055822.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>78.92</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>78.23</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>-0.6899999999999977</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-0.8699999999999999</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731434088.499013</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731434088.7361302</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731434088.499013.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731434088.7361302.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>78.47</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>78.29000000000001</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.1799999999999926</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731434088.901209</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731434090.3175974</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731434088.901209.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731434090.3175974.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>78.51000000000001</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>78.38</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.1300000000000097</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731434090.7533631</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731434092.186783</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731434090.7533631.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731434092.186783.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>78.33</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>78.34</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>0.01000000000000512</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731434092.3928843</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731434093.8052871</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731434092.3928843.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731434093.8052871.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>78.45</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>78.45</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4037,2482 +4707,2941 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731434094.2557948</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731434094.3947597</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731434094.2557948.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731434094.3947597.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>78.34999999999999</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>78.52</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>0.1700000000000017</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731434096.348134</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731434098.5924013</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731434096.348134.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731434098.5924013.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>78.61</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>78.73</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>-0.1200000000000045</v>
+      </c>
+      <c r="N76" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731434099.0059855</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731434099.412878</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731434099.0059855.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731434099.412878.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>78.65000000000001</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>78.68000000000001</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>0.03000000000000114</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731434100.2045808</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731434100.4624093</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731434100.2045808.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731434100.4624093.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>78.55</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>78.64</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>0.09000000000000341</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731434101.3411498</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731434101.7205513</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731434101.3411498.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731434101.7205513.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>103.28</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>103.5</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>0.2199999999999989</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731434103.5808465</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731434103.6743019</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731434103.5808465.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731434103.6743019.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>103.63</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>103.4</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>0.2299999999999898</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731434104.134225</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731434104.5397766</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731434104.134225.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731434104.5397766.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>103</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>103.16</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>0.1599999999999966</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731434105.63445</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731434106.9211612</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731434105.63445.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731434106.9211612.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>102.38</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>102.51</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>0.1300000000000097</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731434107.2992067</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731434107.5183773</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731434107.2992067.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731434107.5183773.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>102.65</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>102.29</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>0.3599999999999994</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731434108.8966546</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731434109.967404</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731434108.8966546.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731434109.967404.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>102.62</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>102.61</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>0.01000000000000512</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731434110.4546335</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731434110.6154149</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731434110.4546335.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731434110.6154149.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>102.4</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>102.64</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>0.2399999999999949</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731434110.6871133</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731434111.2527535</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731434110.6871133.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731434111.2527535.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>102.32</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>102.57</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>0.25</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731434111.3071616</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731434113.7313435</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731434111.3071616.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731434113.7313435.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>102.76</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>102.79</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>-0.03000000000000114</v>
+      </c>
+      <c r="N87" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731434114.0112813</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731434114.2585206</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731434114.0112813.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731434114.2585206.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>102.72</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>103.05</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>0.3299999999999983</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731434116.633793</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731434117.3131392</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731434116.633793.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731434117.3131392.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>103.36</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>103</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>0.3599999999999994</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731434119.7442088</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1731434119.944578</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731434119.7442088.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731434119.944578.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>103</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>103.24</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>0.2399999999999949</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731434120.7100852</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1731434120.9529483</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731434120.7100852.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731434120.9529483.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>102.69</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>103.1</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>0.4099999999999966</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731434122.1684515</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1731434122.9466996</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434122.1684515.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434122.9466996.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>2755.5</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>2754.25</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>1.25</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731434123.9735694</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1731434124.642828</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434123.9735694.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434124.642828.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>2753.8</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>2754.1</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>0.2999999999997272</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731434125.2441957</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1731434127.5247092</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434125.2441957.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434127.5247092.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>2749.6</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>2741</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>-8.599999999999909</v>
+      </c>
+      <c r="N94" t="n">
+        <v>-0.31</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1731434127.6075704</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>1731434127.7533095</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434127.6075704.png</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434127.7533095.png</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>2743.65</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>2738.5</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>5.150000000000091</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1731434129.20661</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>1731434130.4986918</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434129.20661.png</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434130.4986918.png</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>2746.65</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>2743.9</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
         <v>2.75</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1731434131.303519</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>1731434132.040765</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434131.303519.png</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434132.040765.png</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>2742.65</v>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>2744.75</v>
       </c>
-      <c r="K97" t="n">
+      <c r="M97" t="n">
         <v>2.099999999999909</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>1731434133.0367453</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>1731434134.6439936</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434133.0367453.png</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434134.6439936.png</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
         <v>2745.7</v>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>2746.85</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
         <v>-1.150000000000091</v>
+      </c>
+      <c r="N98" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>1731434134.774884</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>1731434135.291552</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434134.774884.png</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434135.291552.png</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
         <v>2744.25</v>
       </c>
-      <c r="J99" t="n">
+      <c r="L99" t="n">
         <v>2750.7</v>
       </c>
-      <c r="K99" t="n">
+      <c r="M99" t="n">
         <v>6.449999999999818</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>1731434136.648398</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>1731434137.4557765</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434136.648398.png</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434137.4557765.png</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
         <v>2753</v>
       </c>
-      <c r="J100" t="n">
+      <c r="L100" t="n">
         <v>2749.6</v>
       </c>
-      <c r="K100" t="n">
+      <c r="M100" t="n">
         <v>3.400000000000091</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="n">
+        <v>99</v>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>1731434138.9554265</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>1731434139.2153702</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434138.9554265.png</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>./test_images/MXI1731434139.2153702.png</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I101" t="n">
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
         <v>2748.25</v>
       </c>
-      <c r="J101" t="n">
+      <c r="L101" t="n">
         <v>2751.4</v>
       </c>
-      <c r="K101" t="n">
+      <c r="M101" t="n">
         <v>3.150000000000091</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>1731434139.5807264</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731434139.5807264.png</t>
         </is>
       </c>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731434139.5807264.png</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I102" t="n">
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
         <v>2746.15</v>
       </c>
-      <c r="J102" t="n">
-        <v>2746.15</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0</v>
+      <c r="L102" t="n">
+        <v>2744.45</v>
+      </c>
+      <c r="M102" t="n">
+        <v>-1.700000000000273</v>
+      </c>
+      <c r="N102" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" t="n">
+        <v>101</v>
+      </c>
+      <c r="C103" t="n">
+        <v>101</v>
+      </c>
+      <c r="D103" t="inlineStr">
         <is>
           <t>APTK</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>1731434142.6588433</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>1731434143.2909777</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>./test_images/APTK1731434142.6588433.png</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>./test_images/APTK1731434143.2909777.png</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I103" t="n">
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
         <v>10.848</v>
       </c>
-      <c r="J103" t="n">
+      <c r="L103" t="n">
         <v>10.842</v>
       </c>
-      <c r="K103" t="n">
+      <c r="M103" t="n">
         <v>0.006000000000000227</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" t="n">
+        <v>102</v>
+      </c>
+      <c r="C104" t="n">
+        <v>102</v>
+      </c>
+      <c r="D104" t="inlineStr">
         <is>
           <t>APTK</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>1731434146.5018542</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>1731434147.207872</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>./test_images/APTK1731434146.5018542.png</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>./test_images/APTK1731434147.207872.png</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
+      <c r="I104" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I104" t="n">
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
         <v>10.842</v>
       </c>
-      <c r="J104" t="n">
+      <c r="L104" t="n">
         <v>10.868</v>
       </c>
-      <c r="K104" t="n">
+      <c r="M104" t="n">
         <v>0.0259999999999998</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" t="n">
+        <v>103</v>
+      </c>
+      <c r="C105" t="n">
+        <v>103</v>
+      </c>
+      <c r="D105" t="inlineStr">
         <is>
           <t>APTK</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>1731434147.6116078</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>1731434148.6220005</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>./test_images/APTK1731434147.6116078.png</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>./test_images/APTK1731434148.6220005.png</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="I105" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I105" t="n">
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
         <v>10.884</v>
       </c>
-      <c r="J105" t="n">
+      <c r="L105" t="n">
         <v>10.862</v>
       </c>
-      <c r="K105" t="n">
+      <c r="M105" t="n">
         <v>0.02200000000000024</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" t="n">
+        <v>104</v>
+      </c>
+      <c r="C106" t="n">
+        <v>104</v>
+      </c>
+      <c r="D106" t="inlineStr">
         <is>
           <t>APTK</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>1731434149.638722</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>1731434149.7664022</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>./test_images/APTK1731434149.638722.png</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>./test_images/APTK1731434149.7664022.png</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
+      <c r="I106" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I106" t="n">
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
         <v>10.86</v>
       </c>
-      <c r="J106" t="n">
+      <c r="L106" t="n">
         <v>10.864</v>
       </c>
-      <c r="K106" t="n">
+      <c r="M106" t="n">
         <v>0.004000000000001336</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B107" t="n">
+        <v>105</v>
+      </c>
+      <c r="C107" t="n">
+        <v>105</v>
+      </c>
+      <c r="D107" t="inlineStr">
         <is>
           <t>APTK</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>1731434151.121154</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>1731434151.6387</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>./test_images/APTK1731434151.121154.png</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="H107" t="inlineStr">
         <is>
           <t>./test_images/APTK1731434151.6387.png</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
+      <c r="I107" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I107" t="n">
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
         <v>10.832</v>
       </c>
-      <c r="J107" t="n">
+      <c r="L107" t="n">
         <v>10.856</v>
       </c>
-      <c r="K107" t="n">
+      <c r="M107" t="n">
         <v>0.02399999999999913</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B108" t="n">
+        <v>106</v>
+      </c>
+      <c r="C108" t="n">
+        <v>106</v>
+      </c>
+      <c r="D108" t="inlineStr">
         <is>
           <t>APTK</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>1731434154.8226688</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>1731434156.3132691</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>./test_images/APTK1731434154.8226688.png</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="H108" t="inlineStr">
         <is>
           <t>./test_images/APTK1731434156.3132691.png</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
+      <c r="I108" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I108" t="n">
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
         <v>10.836</v>
       </c>
-      <c r="J108" t="n">
+      <c r="L108" t="n">
         <v>10.852</v>
       </c>
-      <c r="K108" t="n">
+      <c r="M108" t="n">
         <v>0.01600000000000001</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B109" t="n">
+        <v>107</v>
+      </c>
+      <c r="C109" t="n">
+        <v>107</v>
+      </c>
+      <c r="D109" t="inlineStr">
         <is>
           <t>APTK</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>1731434158.2258801</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>./test_images/APTK1731434158.2258801.png</t>
         </is>
       </c>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr">
         <is>
+          <t>./test_images/APTK1731434158.2258801.png</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I109" t="n">
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
         <v>10.856</v>
       </c>
-      <c r="J109" t="n">
-        <v>10.856</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0</v>
+      <c r="L109" t="n">
+        <v>10.868</v>
+      </c>
+      <c r="M109" t="n">
+        <v>-0.01200000000000045</v>
+      </c>
+      <c r="N109" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B110" t="n">
+        <v>108</v>
+      </c>
+      <c r="C110" t="n">
+        <v>108</v>
+      </c>
+      <c r="D110" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>1731434161.4866083</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>1731434161.805259</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731434161.4866083.png</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="H110" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731434161.805259.png</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
+      <c r="I110" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I110" t="n">
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
         <v>478.4</v>
       </c>
-      <c r="J110" t="n">
+      <c r="L110" t="n">
         <v>480.1</v>
       </c>
-      <c r="K110" t="n">
+      <c r="M110" t="n">
         <v>1.700000000000045</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B111" t="n">
+        <v>109</v>
+      </c>
+      <c r="C111" t="n">
+        <v>109</v>
+      </c>
+      <c r="D111" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>1731434162.628599</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>1731434164.3529234</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731434162.628599.png</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="H111" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731434164.3529234.png</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
+      <c r="I111" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I111" t="n">
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
         <v>481.9</v>
       </c>
-      <c r="J111" t="n">
+      <c r="L111" t="n">
         <v>483.3</v>
       </c>
-      <c r="K111" t="n">
+      <c r="M111" t="n">
         <v>-1.400000000000034</v>
+      </c>
+      <c r="N111" t="n">
+        <v>-0.29</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B112" t="n">
+        <v>110</v>
+      </c>
+      <c r="C112" t="n">
+        <v>110</v>
+      </c>
+      <c r="D112" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>1731434164.5098732</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>1731434166.0487204</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731434164.5098732.png</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="H112" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731434166.0487204.png</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
+      <c r="I112" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I112" t="n">
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
         <v>481</v>
       </c>
-      <c r="J112" t="n">
+      <c r="L112" t="n">
         <v>481.6</v>
       </c>
-      <c r="K112" t="n">
+      <c r="M112" t="n">
         <v>0.6000000000000227</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B113" t="n">
+        <v>111</v>
+      </c>
+      <c r="C113" t="n">
+        <v>111</v>
+      </c>
+      <c r="D113" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>1731434167.2805793</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>1731434168.7175848</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731434167.2805793.png</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="H113" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731434168.7175848.png</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr">
+      <c r="I113" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I113" t="n">
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
         <v>481.9</v>
       </c>
-      <c r="J113" t="n">
+      <c r="L113" t="n">
         <v>481.7</v>
       </c>
-      <c r="K113" t="n">
+      <c r="M113" t="n">
         <v>0.1999999999999886</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B114" t="n">
+        <v>112</v>
+      </c>
+      <c r="C114" t="n">
+        <v>112</v>
+      </c>
+      <c r="D114" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>1731434169.4851089</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>1731434170.3431406</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731434169.4851089.png</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="H114" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731434170.3431406.png</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr">
+      <c r="I114" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I114" t="n">
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
         <v>481.4</v>
       </c>
-      <c r="J114" t="n">
+      <c r="L114" t="n">
         <v>481.9</v>
       </c>
-      <c r="K114" t="n">
+      <c r="M114" t="n">
         <v>0.5</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B115" t="n">
+        <v>113</v>
+      </c>
+      <c r="C115" t="n">
+        <v>113</v>
+      </c>
+      <c r="D115" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>1731434171.4031</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>1731434173.298336</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731434171.4031.png</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="H115" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731434173.298336.png</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr">
+      <c r="I115" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I115" t="n">
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
         <v>482</v>
       </c>
-      <c r="J115" t="n">
+      <c r="L115" t="n">
         <v>485.2</v>
       </c>
-      <c r="K115" t="n">
+      <c r="M115" t="n">
         <v>-3.199999999999989</v>
+      </c>
+      <c r="N115" t="n">
+        <v>-0.66</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B116" t="n">
+        <v>114</v>
+      </c>
+      <c r="C116" t="n">
+        <v>114</v>
+      </c>
+      <c r="D116" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>1731434174.6900108</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>1731434175.358175</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731434174.6900108.png</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="H116" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731434175.358175.png</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
+      <c r="I116" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I116" t="n">
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
         <v>484.8</v>
       </c>
-      <c r="J116" t="n">
+      <c r="L116" t="n">
         <v>486.7</v>
       </c>
-      <c r="K116" t="n">
+      <c r="M116" t="n">
         <v>1.899999999999977</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B117" t="n">
+        <v>115</v>
+      </c>
+      <c r="C117" t="n">
+        <v>115</v>
+      </c>
+      <c r="D117" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>1731434175.4595509</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>1731434175.7767632</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731434175.4595509.png</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="H117" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731434175.7767632.png</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr">
+      <c r="I117" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I117" t="n">
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
         <v>487.2</v>
       </c>
-      <c r="J117" t="n">
+      <c r="L117" t="n">
         <v>485.4</v>
       </c>
-      <c r="K117" t="n">
+      <c r="M117" t="n">
         <v>1.800000000000011</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0.37</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B118" t="n">
+        <v>116</v>
+      </c>
+      <c r="C118" t="n">
+        <v>116</v>
+      </c>
+      <c r="D118" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>1731434175.9990656</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>1731434176.4407318</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731434175.9990656.png</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="H118" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731434176.4407318.png</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr">
+      <c r="I118" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I118" t="n">
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
         <v>484.6</v>
       </c>
-      <c r="J118" t="n">
+      <c r="L118" t="n">
         <v>485.2</v>
       </c>
-      <c r="K118" t="n">
+      <c r="M118" t="n">
         <v>0.5999999999999659</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B119" t="n">
+        <v>117</v>
+      </c>
+      <c r="C119" t="n">
+        <v>117</v>
+      </c>
+      <c r="D119" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>1731434178.1966248</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>1731434178.5740914</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731434178.1966248.png</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="H119" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731434178.5740914.png</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr">
+      <c r="I119" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I119" t="n">
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
         <v>483.3</v>
       </c>
-      <c r="J119" t="n">
+      <c r="L119" t="n">
         <v>484.7</v>
       </c>
-      <c r="K119" t="n">
+      <c r="M119" t="n">
         <v>1.399999999999977</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B120" t="n">
+        <v>118</v>
+      </c>
+      <c r="C120" t="n">
+        <v>118</v>
+      </c>
+      <c r="D120" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>1731434180.3555014</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>1731434181.5027633</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>./test_images/TATN1731434180.3555014.png</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="H120" t="inlineStr">
         <is>
           <t>./test_images/TATN1731434181.5027633.png</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr">
+      <c r="I120" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I120" t="n">
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
         <v>575.9</v>
       </c>
-      <c r="J120" t="n">
+      <c r="L120" t="n">
         <v>575.5</v>
       </c>
-      <c r="K120" t="n">
+      <c r="M120" t="n">
         <v>0.3999999999999773</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B121" t="n">
+        <v>119</v>
+      </c>
+      <c r="C121" t="n">
+        <v>119</v>
+      </c>
+      <c r="D121" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>1731434182.3587186</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>1731434182.8074799</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>./test_images/TATN1731434182.3587186.png</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="H121" t="inlineStr">
         <is>
           <t>./test_images/TATN1731434182.8074799.png</t>
         </is>
       </c>
-      <c r="G121" t="inlineStr">
+      <c r="I121" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I121" t="n">
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
         <v>575.6</v>
       </c>
-      <c r="J121" t="n">
+      <c r="L121" t="n">
         <v>576.3</v>
       </c>
-      <c r="K121" t="n">
+      <c r="M121" t="n">
         <v>0.6999999999999318</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B122" t="n">
+        <v>120</v>
+      </c>
+      <c r="C122" t="n">
+        <v>120</v>
+      </c>
+      <c r="D122" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>1731434183.0606508</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>1731434183.2882373</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>./test_images/TATN1731434183.0606508.png</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="H122" t="inlineStr">
         <is>
           <t>./test_images/TATN1731434183.2882373.png</t>
         </is>
       </c>
-      <c r="G122" t="inlineStr">
+      <c r="I122" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I122" t="n">
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
         <v>575.1</v>
       </c>
-      <c r="J122" t="n">
+      <c r="L122" t="n">
         <v>576.3</v>
       </c>
-      <c r="K122" t="n">
+      <c r="M122" t="n">
         <v>1.199999999999932</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B123" t="n">
+        <v>121</v>
+      </c>
+      <c r="C123" t="n">
+        <v>121</v>
+      </c>
+      <c r="D123" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>1731434183.762412</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>1731434185.3709507</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>./test_images/TATN1731434183.762412.png</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="H123" t="inlineStr">
         <is>
           <t>./test_images/TATN1731434185.3709507.png</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr">
+      <c r="I123" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I123" t="n">
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
         <v>575</v>
       </c>
-      <c r="J123" t="n">
+      <c r="L123" t="n">
         <v>574.9</v>
       </c>
-      <c r="K123" t="n">
+      <c r="M123" t="n">
         <v>-0.1000000000000227</v>
+      </c>
+      <c r="N123" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B124" t="n">
+        <v>122</v>
+      </c>
+      <c r="C124" t="n">
+        <v>122</v>
+      </c>
+      <c r="D124" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>1731434185.4190984</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>1731434185.6696184</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>./test_images/TATN1731434185.4190984.png</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="H124" t="inlineStr">
         <is>
           <t>./test_images/TATN1731434185.6696184.png</t>
         </is>
       </c>
-      <c r="G124" t="inlineStr">
+      <c r="I124" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I124" t="n">
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
         <v>575.8</v>
       </c>
-      <c r="J124" t="n">
+      <c r="L124" t="n">
         <v>575.4</v>
       </c>
-      <c r="K124" t="n">
+      <c r="M124" t="n">
         <v>0.3999999999999773</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B125" t="n">
+        <v>123</v>
+      </c>
+      <c r="C125" t="n">
+        <v>123</v>
+      </c>
+      <c r="D125" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>1731434187.31275</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>1731434189.13803</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>./test_images/TATN1731434187.31275.png</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="H125" t="inlineStr">
         <is>
           <t>./test_images/TATN1731434189.13803.png</t>
         </is>
       </c>
-      <c r="G125" t="inlineStr">
+      <c r="I125" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I125" t="n">
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
         <v>577.5</v>
       </c>
-      <c r="J125" t="n">
+      <c r="L125" t="n">
         <v>577.5</v>
       </c>
-      <c r="K125" t="n">
+      <c r="M125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6520,335 +7649,398 @@
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B126" t="n">
+        <v>124</v>
+      </c>
+      <c r="C126" t="n">
+        <v>124</v>
+      </c>
+      <c r="D126" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>1731434189.352712</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>1731434190.085163</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>./test_images/TATN1731434189.352712.png</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="H126" t="inlineStr">
         <is>
           <t>./test_images/TATN1731434190.085163.png</t>
         </is>
       </c>
-      <c r="G126" t="inlineStr">
+      <c r="I126" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I126" t="n">
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
         <v>577</v>
       </c>
-      <c r="J126" t="n">
+      <c r="L126" t="n">
         <v>578</v>
       </c>
-      <c r="K126" t="n">
+      <c r="M126" t="n">
         <v>1</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B127" t="n">
+        <v>125</v>
+      </c>
+      <c r="C127" t="n">
+        <v>125</v>
+      </c>
+      <c r="D127" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>1731434191.081757</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>1731434193.1656575</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>./test_images/TATN1731434191.081757.png</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="H127" t="inlineStr">
         <is>
           <t>./test_images/TATN1731434193.1656575.png</t>
         </is>
       </c>
-      <c r="G127" t="inlineStr">
+      <c r="I127" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I127" t="n">
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
         <v>578.9</v>
       </c>
-      <c r="J127" t="n">
+      <c r="L127" t="n">
         <v>580.1</v>
       </c>
-      <c r="K127" t="n">
+      <c r="M127" t="n">
         <v>-1.200000000000045</v>
+      </c>
+      <c r="N127" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B128" t="n">
+        <v>126</v>
+      </c>
+      <c r="C128" t="n">
+        <v>126</v>
+      </c>
+      <c r="D128" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>1731434193.3341067</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>1731434193.4673874</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>./test_images/TATN1731434193.3341067.png</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="H128" t="inlineStr">
         <is>
           <t>./test_images/TATN1731434193.4673874.png</t>
         </is>
       </c>
-      <c r="G128" t="inlineStr">
+      <c r="I128" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I128" t="n">
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
         <v>580.8</v>
       </c>
-      <c r="J128" t="n">
+      <c r="L128" t="n">
         <v>580.1</v>
       </c>
-      <c r="K128" t="n">
+      <c r="M128" t="n">
         <v>0.6999999999999318</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B129" t="n">
+        <v>127</v>
+      </c>
+      <c r="C129" t="n">
+        <v>127</v>
+      </c>
+      <c r="D129" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>1731434193.6491077</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="F129" t="inlineStr">
         <is>
           <t>1731434194.3075056</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>./test_images/TATN1731434193.6491077.png</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="H129" t="inlineStr">
         <is>
           <t>./test_images/TATN1731434194.3075056.png</t>
         </is>
       </c>
-      <c r="G129" t="inlineStr">
+      <c r="I129" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I129" t="n">
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
         <v>580.9</v>
       </c>
-      <c r="J129" t="n">
+      <c r="L129" t="n">
         <v>581</v>
       </c>
-      <c r="K129" t="n">
+      <c r="M129" t="n">
         <v>-0.1000000000000227</v>
+      </c>
+      <c r="N129" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B130" t="n">
+        <v>128</v>
+      </c>
+      <c r="C130" t="n">
+        <v>128</v>
+      </c>
+      <c r="D130" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>1731434195.0029724</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="F130" t="inlineStr">
         <is>
           <t>1731434195.9094954</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>./test_images/TATN1731434195.0029724.png</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
+      <c r="H130" t="inlineStr">
         <is>
           <t>./test_images/TATN1731434195.9094954.png</t>
         </is>
       </c>
-      <c r="G130" t="inlineStr">
+      <c r="I130" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I130" t="n">
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
         <v>582.9</v>
       </c>
-      <c r="J130" t="n">
+      <c r="L130" t="n">
         <v>582.4</v>
       </c>
-      <c r="K130" t="n">
+      <c r="M130" t="n">
         <v>0.5</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B131" t="n">
+        <v>129</v>
+      </c>
+      <c r="C131" t="n">
+        <v>129</v>
+      </c>
+      <c r="D131" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>1731434196.1183937</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="F131" t="inlineStr">
         <is>
           <t>1731434196.5715191</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>./test_images/TATN1731434196.1183937.png</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="H131" t="inlineStr">
         <is>
           <t>./test_images/TATN1731434196.5715191.png</t>
         </is>
       </c>
-      <c r="G131" t="inlineStr">
+      <c r="I131" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I131" t="n">
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
         <v>584</v>
       </c>
-      <c r="J131" t="n">
+      <c r="L131" t="n">
         <v>582.2</v>
       </c>
-      <c r="K131" t="n">
+      <c r="M131" t="n">
         <v>1.799999999999955</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B132" t="n">
+        <v>130</v>
+      </c>
+      <c r="C132" t="n">
+        <v>130</v>
+      </c>
+      <c r="D132" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>1731434197.1495972</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr"/>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>./test_images/TATN1731434197.1495972.png</t>
         </is>
       </c>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr">
         <is>
+          <t>./test_images/TATN1731434197.1495972.png</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I132" t="n">
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
         <v>582</v>
       </c>
-      <c r="J132" t="n">
-        <v>582</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0</v>
+      <c r="L132" t="n">
+        <v>575.7</v>
+      </c>
+      <c r="M132" t="n">
+        <v>-6.299999999999955</v>
+      </c>
+      <c r="N132" t="n">
+        <v>-1.08</v>
       </c>
     </row>
   </sheetData>
@@ -6862,7 +8054,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6891,6 +8083,16 @@
           <t>part</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -6899,13 +8101,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13.80000000000018</v>
+        <v>13.60000000000014</v>
       </c>
       <c r="C2" t="n">
         <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>1.061538461538476</v>
+        <v>1.046153846153857</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="3">
@@ -6923,6 +8131,12 @@
       <c r="D3" t="n">
         <v>0.2238461538461525</v>
       </c>
+      <c r="E3" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -6931,13 +8145,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.999999999999943</v>
+        <v>2.099999999999966</v>
       </c>
       <c r="C4" t="n">
         <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2307692307692264</v>
+        <v>0.1615384615384589</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="5">
@@ -6947,13 +8167,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.299999999999613</v>
+        <v>-1.000000000000341</v>
       </c>
       <c r="C5" t="n">
         <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4076923076922779</v>
+        <v>-0.07692307692310316</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.1700000000000002</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="6">
@@ -6971,6 +8197,12 @@
       <c r="D6" t="n">
         <v>0.1400000000000029</v>
       </c>
+      <c r="E6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -6987,6 +8219,12 @@
       <c r="D7" t="n">
         <v>0.03454545454545543</v>
       </c>
+      <c r="E7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -6995,13 +8233,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.79999999999973</v>
+        <v>13.09999999999945</v>
       </c>
       <c r="C8" t="n">
         <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>1.345454545454521</v>
+        <v>1.190909090909041</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="9">
@@ -7019,6 +8263,12 @@
       <c r="D9" t="n">
         <v>0.4099999999999966</v>
       </c>
+      <c r="E9" t="n">
+        <v>0.8399999999999999</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -7035,6 +8285,12 @@
       <c r="D10" t="n">
         <v>-0.02599999999999767</v>
       </c>
+      <c r="E10" t="n">
+        <v>-0.3199999999999998</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.03</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -7043,13 +8299,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.200000000000045</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>9</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1333333333333384</v>
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-5.551115123125783e-17</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0</v>
       </c>
     </row>
     <row r="12">
@@ -7067,6 +8329,12 @@
       <c r="D12" t="n">
         <v>-5.1875</v>
       </c>
+      <c r="E12" t="n">
+        <v>-0.6000000000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.08</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -7075,13 +8343,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.09800000000000075</v>
+        <v>0.0860000000000003</v>
       </c>
       <c r="C13" t="n">
         <v>7</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01400000000000011</v>
+        <v>0.01228571428571433</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="14">
@@ -7097,6 +8371,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
